--- a/pred_ohlcv/54_21/2020-01-13 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BCD ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-24054.29470886</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-24054.29470886</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-24501.52070886</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-28473.63100886</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-25057.50660886</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-25443.57020886</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-26438.24920886</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-25911.04920886</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-24440.00450886</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-24440.00450886</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-24530.00450886</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-24530.00450886</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-24412.89250886</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-25073.57550886</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-25073.57550886</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-30795.26910886</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-30264.88620886</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-30787.40080885999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-30787.40080885999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-30947.87510886</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-30947.87510886</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-40832.96130886</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-57789.95453179</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-57789.95453179</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-57894.29133179</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-56377.39333179</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-56382.39333179</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-56382.39333179</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-58583.14773179</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-58622.64773179</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-57622.64773179</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-57653.28613179</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-56954.99813179</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-56954.99813179</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-56957.56673179</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-57997.56673179</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-76997.56673178999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-72100.35193178999</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-130938.30987465</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-130231.76107465</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-130611.05607465</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-129020.09147465</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-124651.72067465</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-124651.72067465</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-122135.67947465</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-130504.09776898</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-130504.09776898</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-130581.09776898</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-136402.11046898</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-136202.11046898</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-136288.11046898</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-136288.11046898</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-136327.11046898</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-136325.91046898</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-136855.37806898</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-136855.37806898</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-136853.37806898</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-139677.82756898</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-125580.57286331</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-127834.27286331</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-127274.27286331</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-127241.27286331</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-126238.58996331</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-125722.82496331</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-139561.63166331</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-139909.17636331</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-137534.17636331</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-138377.45686331</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-140160.59456331</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-131257.97536331</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-131257.97536331</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-132239.22146331</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-138500.71502143</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-136155.63406381</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-136155.63406381</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-136155.63406381</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-136120.63288983</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-153902.29908983</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-187411.2179236401</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-188035.4698236401</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-188035.4698236401</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-188514.1698236401</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-188043.5370236401</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-200443.1722236401</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-200443.1722236401</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-192642.0613236401</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-192642.0613236401</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-196325.9958236401</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BCD ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-26438.24920886</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-25911.04920886</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-24440.00450886</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-24440.00450886</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-24530.00450886</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-24530.00450886</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-24412.89250886</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-25073.57550886</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-25073.57550886</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-30795.26910886</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-30264.88620886</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-30787.40080885999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-30787.40080885999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-30947.87510886</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-37043.02590886</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-37043.02590886</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-37043.02590886</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-37043.02590886</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-37672.79260886</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-58164.84783179</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-57881.69263179</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-56377.39333179</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-56377.39333179</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-56382.39333179</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-56382.39333179</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-58583.14773179</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-58622.64773179</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-57653.28613179</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-56954.99813179</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-56954.99813179</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-56957.56673179</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-57997.56673179</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-76997.56673178999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-130504.09776898</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-130504.09776898</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-130581.09776898</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-136402.11046898</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-136202.11046898</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-136288.11046898</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-136288.11046898</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-136327.11046898</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-136325.91046898</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-136855.37806898</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-136855.37806898</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-136853.37806898</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-139677.82756898</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-125580.57286331</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-127834.27286331</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-127274.27286331</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-127241.27286331</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-126238.58996331</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-125722.82496331</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-139561.63166331</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-139909.17636331</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-137534.17636331</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-138377.45686331</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-140160.59456331</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-131257.97536331</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-131257.97536331</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-132239.22146331</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-138500.71502143</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-136155.63406381</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-136155.63406381</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-136155.63406381</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-136120.63288983</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-153902.29908983</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-187411.2179236401</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-188035.4698236401</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-188035.4698236401</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-188514.1698236401</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-188043.5370236401</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-200443.1722236401</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-200443.1722236401</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-190659.5544236401</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-192642.0613236401</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-192642.0613236401</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-196325.9958236401</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
